--- a/docs/test/Testconcept_OrganisationApp_Modules_Leon.xlsx
+++ b/docs/test/Testconcept_OrganisationApp_Modules_Leon.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27304"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Coding\02_Projects\02_SE_Project_05\docs\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonbeckert/unidev/project_05/docs/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB6B7AE-78AD-4041-BF11-54B9EBEE59A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121DB1E4-D1C8-4747-8629-3EDE60B740FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="9" r:id="rId1"/>
     <sheet name="Unit-Tests Frontend" sheetId="10" r:id="rId2"/>
     <sheet name="Widget-Tests Frontend" sheetId="5" r:id="rId3"/>
     <sheet name="Integration-Tests Frontend" sheetId="8" r:id="rId4"/>
-    <sheet name="Unit-Tests Backend" sheetId="11" r:id="rId5"/>
+    <sheet name="Unit-Tests Bakend" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
-  <si>
-    <t>CreateItemPage</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="237">
   <si>
     <t>Erwartetes Ergebnis</t>
   </si>
@@ -52,9 +49,6 @@
     <t>Erwartete Ausgaben</t>
   </si>
   <si>
-    <t>MainPage</t>
-  </si>
-  <si>
     <t>Testfälle</t>
   </si>
   <si>
@@ -73,60 +67,9 @@
     <t>Ausgabe</t>
   </si>
   <si>
-    <t>Zwei Card-Widgets vorhanden</t>
-  </si>
-  <si>
-    <t>Keine Card-Widgets vorhanden</t>
-  </si>
-  <si>
-    <t>Zwei Delete Icons vorhanden</t>
-  </si>
-  <si>
-    <t>Zwei Edit Icons vorhanden</t>
-  </si>
-  <si>
-    <t>Keine Card Widgets vorhanden</t>
-  </si>
-  <si>
     <t>Entsprechende Anzahl an Card Widgets vorhanden</t>
   </si>
   <si>
-    <t>Entsprechende Anzahl an Delete Icons vorhanden</t>
-  </si>
-  <si>
-    <t>Entsprechende Anzahl an Edit Icons vorhanden</t>
-  </si>
-  <si>
-    <t>Seite korrekt geladen</t>
-  </si>
-  <si>
-    <t>Zwei Textfelder und ein Button mit Text Create  korrekt geladen, Hint Texte für Namen und Beschreibung vorhanden</t>
-  </si>
-  <si>
-    <t>Seite wechselt zu MainPage</t>
-  </si>
-  <si>
-    <t>Seite wechselt nicht, Validiation Text im Namensfeld vorhanden</t>
-  </si>
-  <si>
-    <t>Seite wechselt nicht, Validiation Text im Beschreibungsfeld vorhanden</t>
-  </si>
-  <si>
-    <t>Beschreibung aber kein Name &amp; Button Click Create</t>
-  </si>
-  <si>
-    <t>Name aber keine Beschreibung &amp; Button Click Create</t>
-  </si>
-  <si>
-    <t>Name und Beschreibung und Button Click Create</t>
-  </si>
-  <si>
-    <t>Seite korrekt geladen, Item Liste leer</t>
-  </si>
-  <si>
-    <t>Seite korrekt geladen, Item Liste nicht leer</t>
-  </si>
-  <si>
     <t>Szenario</t>
   </si>
   <si>
@@ -169,9 +112,6 @@
     <t>Funktion/Methode</t>
   </si>
   <si>
-    <t>Äquivalenzklasse</t>
-  </si>
-  <si>
     <t>Möglichkeiten -&gt;</t>
   </si>
   <si>
@@ -181,15 +121,6 @@
     <t>Benutzer nicht angemeldet</t>
   </si>
   <si>
-    <t>User login angezeigt</t>
-  </si>
-  <si>
-    <t>Benutzer befindet sich in "MyCourses" page, 0 Kurse angezeigt</t>
-  </si>
-  <si>
-    <t>Benutzer anmelden und abmelden</t>
-  </si>
-  <si>
     <t>Benutzer anmelden mit "test"</t>
   </si>
   <si>
@@ -212,6 +143,603 @@
   </si>
   <si>
     <t>Leon Beckert</t>
+  </si>
+  <si>
+    <t>integration_test/leons_test.dart</t>
+  </si>
+  <si>
+    <t>lib/controller/module_controller.dart</t>
+  </si>
+  <si>
+    <t>ModuleController</t>
+  </si>
+  <si>
+    <t>fetchModuleList</t>
+  </si>
+  <si>
+    <t>test/controller/module_controller_test.dart</t>
+  </si>
+  <si>
+    <t>fetchModuleListWithPaginationAndSorting</t>
+  </si>
+  <si>
+    <t>fetchModule</t>
+  </si>
+  <si>
+    <t>lib/model/module.dart</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>toJson</t>
+  </si>
+  <si>
+    <t>fromJson</t>
+  </si>
+  <si>
+    <t>test/controller/module_test.dart</t>
+  </si>
+  <si>
+    <t>Es gibt Module</t>
+  </si>
+  <si>
+    <t>Es gibt keine Module</t>
+  </si>
+  <si>
+    <t>Liste der Module</t>
+  </si>
+  <si>
+    <t>Leere Liste</t>
+  </si>
+  <si>
+    <t>Einfache GET-Request</t>
+  </si>
+  <si>
+    <t>Liste von Modulen</t>
+  </si>
+  <si>
+    <t>Die Antwort vom Server ist leer</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Die Antwort vom Server ist nicht 200</t>
+  </si>
+  <si>
+    <t>fetchModuleListWIthPaginationAndSorting</t>
+  </si>
+  <si>
+    <t>Es gibt passende Module</t>
+  </si>
+  <si>
+    <t>Es gibt keine passenden Module</t>
+  </si>
+  <si>
+    <t>Anfrage mit Filter-Parametern</t>
+  </si>
+  <si>
+    <t>Liste der passenden Module</t>
+  </si>
+  <si>
+    <t>page, size, sortBy, sortDir</t>
+  </si>
+  <si>
+    <t>Liste von passenden Modulen</t>
+  </si>
+  <si>
+    <t>page, size, sortBy, sortDir, searchQuery</t>
+  </si>
+  <si>
+    <t>Es gibt passende Module zu Searchstring</t>
+  </si>
+  <si>
+    <t>Es gibt das Modul</t>
+  </si>
+  <si>
+    <t>Es gibt das Modul nicht</t>
+  </si>
+  <si>
+    <t>Anfrage mit Modul-ID</t>
+  </si>
+  <si>
+    <t>Modul-ID existiert nicht</t>
+  </si>
+  <si>
+    <t>Daten des Moduls</t>
+  </si>
+  <si>
+    <t>Leere Antwort</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Die Antwort vom Server ist ist nicht 200</t>
+  </si>
+  <si>
+    <t>Die Antwort vom Server ist ist leer</t>
+  </si>
+  <si>
+    <t>User login angezeigt 'Continue as Guest' gefunden</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in "MyCourses" page</t>
+  </si>
+  <si>
+    <t>Menu drawer öffnen und "Modules" klicken</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich auf "Modules"-Page</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich auf "MyCourses" page</t>
+  </si>
+  <si>
+    <t>Filter Button anklicken</t>
+  </si>
+  <si>
+    <t>Filteroptionen sind geöffnet</t>
+  </si>
+  <si>
+    <t>Filteroptionen sind offen</t>
+  </si>
+  <si>
+    <t>Auf "Ascending" Toggle klicken</t>
+  </si>
+  <si>
+    <t>Filteroptionen geschlossen, Module absteigend sortiert</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich auf "Modules"-Page, Module aufsteigend sortiert</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich auf "Modules"-Page, Module absteigend sortiert</t>
+  </si>
+  <si>
+    <t>Benutzer scrollt nach ganz unten</t>
+  </si>
+  <si>
+    <t>View befindet sich ganz unten</t>
+  </si>
+  <si>
+    <t>Benutzer klickt auf "Load More"</t>
+  </si>
+  <si>
+    <t>Mehr Module wurden geladen und werden angezeigt</t>
+  </si>
+  <si>
+    <t>Benutzer klickt auf "Suchen" Icon</t>
+  </si>
+  <si>
+    <t>Suche ist offen</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in der Suchseite</t>
+  </si>
+  <si>
+    <t>Benutzer gibt Text "Software Engineering" ein</t>
+  </si>
+  <si>
+    <t>Passende Module zur Suchanfrage werden angezeigt</t>
+  </si>
+  <si>
+    <t>Benutzer sieht Suchergebnisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benutzer klickt auf "Software Engineering I" </t>
+  </si>
+  <si>
+    <t>Moduldetails werden angezeigt</t>
+  </si>
+  <si>
+    <t>Moduldetailseite ist offen</t>
+  </si>
+  <si>
+    <t>Benutzer klickt auf "zurück" Button</t>
+  </si>
+  <si>
+    <t>Modulliste wird angezeigt</t>
+  </si>
+  <si>
+    <t>Benutzer gibt Text "Högele" ein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benutzer klickt auf "Analysis" </t>
+  </si>
+  <si>
+    <t>Benutzer klickt auf "Add" um Modul zu Courses zu adden</t>
+  </si>
+  <si>
+    <t>Menüitems durchklicken</t>
+  </si>
+  <si>
+    <t>Menu drawer öffnen und "My Courses" klicken</t>
+  </si>
+  <si>
+    <t>Modulliste anzeigen, filtern, suchen, add</t>
+  </si>
+  <si>
+    <t>Nutzer sieht die Kurse, die er hinzugefügt hat</t>
+  </si>
+  <si>
+    <t>Kurse befinden sich auf My Courses page</t>
+  </si>
+  <si>
+    <t>Menu drawer öffnen und "Moodle" klicken</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in "Moodle" page</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in "ChatGPT" page</t>
+  </si>
+  <si>
+    <t>Benutzer befindet sich in "Login" page</t>
+  </si>
+  <si>
+    <t>ModuleSearchDelegate</t>
+  </si>
+  <si>
+    <t>ModuleList</t>
+  </si>
+  <si>
+    <t>ModulSearchDelegate korrekt erstellt</t>
+  </si>
+  <si>
+    <t>Die showSearch-Methode wird erfolgreich aufgerufen, und der Suchdialog des ModulSucheDelegates wird korrekt angezeigt.</t>
+  </si>
+  <si>
+    <t>Tippen auf Zurück-Button</t>
+  </si>
+  <si>
+    <t>Benutzer tippt auf den Zurück-Button (Rückwärts-Pfeil)</t>
+  </si>
+  <si>
+    <t>Nach dem Tippen auf den Zurück-Button wird der Suchdialog geschlossen und die Modullist Page wird wieder angezeigt.</t>
+  </si>
+  <si>
+    <t>Leere Eingabe</t>
+  </si>
+  <si>
+    <t>Tippen auf den Clear-Button in der Texteingabe</t>
+  </si>
+  <si>
+    <t>Benutzer tippt auf den Clear-Button (Icons.clear) in der Texteingabe</t>
+  </si>
+  <si>
+    <t>Nach dem Tippen auf den Clear-Button werden alle Eingaben im Textfeld gelöscht. Das Textfeld sollte leer sein und der Benutzer kann eine neue Suche beginnen.</t>
+  </si>
+  <si>
+    <t>ModulSearchDelegate korrekt geladen</t>
+  </si>
+  <si>
+    <t>Leere Suche zeigt Ergebnisse</t>
+  </si>
+  <si>
+    <t>Durchführung einer Suche ohne spezifische Eingaben (leere Suche)</t>
+  </si>
+  <si>
+    <t>Trotz der leeren Eingabe im Suchfeld werden Ergebnisse angezeigt. Dies wird bestätigt durch das Finden von spezifischen Elementen in der Suchergebnisliste.</t>
+  </si>
+  <si>
+    <t>Tippen auf einen Listeneintrag</t>
+  </si>
+  <si>
+    <t>Benutzer tippt auf den ersten Listeneintrag</t>
+  </si>
+  <si>
+    <t>Nach dem Tippen auf einen Listeneintrag wird der ausgewählte Listeneintrag als aktiv markiert oder führt zu einer weiteren Aktion (abhängig von der Implementierung des Listeneintrags).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interaktion mit Listeneintrag und Zurück-Navigation</t>
+  </si>
+  <si>
+    <t>Benutzer tippt auf einen Listeneintrag und dann auf den Zurück-Button</t>
+  </si>
+  <si>
+    <t>Nach dem Tippen auf einen Listeneintrag und anschließendem Tippen auf den Zurück-Button kehrt die Ansicht zum ursprünglichen Zustand mit der Listendarstellung zurück. Es werden wieder Listeneinträge angezeigt.</t>
+  </si>
+  <si>
+    <t>Auftreten eines Backend-Fehlers</t>
+  </si>
+  <si>
+    <t>Backend ist so konfiguriert, dass es einen Fehler wirft</t>
+  </si>
+  <si>
+    <t>Nach dem Auslösen der Suche tritt ein Fehler auf, der durch das Backend simuliert wird. Das System sollte eine Fehlermeldung anzeigen.</t>
+  </si>
+  <si>
+    <t>Benutzer öffnet die Suche, gibt Text ein und verwendet dann den Zurück-Button</t>
+  </si>
+  <si>
+    <t>Texteingabe und Nutzung des Zurück-Buttons</t>
+  </si>
+  <si>
+    <t>Nach dem Öffnen der Suche, Eingabe von Text und Tippen auf den Schließen-Button sollte wieder die Modulliste angezeigt werden</t>
+  </si>
+  <si>
+    <t>Klicken auf Zurückbutton</t>
+  </si>
+  <si>
+    <t>Suchergebnisse werden korrekt angezeigt</t>
+  </si>
+  <si>
+    <t>Seite wechselt nicht</t>
+  </si>
+  <si>
+    <t>Eingabe Suchbegriff</t>
+  </si>
+  <si>
+    <t>Klicken auf Ergebnis</t>
+  </si>
+  <si>
+    <t>Seite wechselt zu ModulDetailSeite</t>
+  </si>
+  <si>
+    <t>Seite wechselt zurück zur ModuleList</t>
+  </si>
+  <si>
+    <t>Das Modul wird korrekt aus der API-Antwort geladen und angezeigt.</t>
+  </si>
+  <si>
+    <t>HTTP-Response mit Modulinformationen in JSON-Format.</t>
+  </si>
+  <si>
+    <t>Das Modul 'Test Module 1' wird in der Liste der Kurse angezeigt.</t>
+  </si>
+  <si>
+    <t>Die Sortierfunktion  funktioniert korrekt.</t>
+  </si>
+  <si>
+    <t>Benutzereingabe über das Interface, um die Liste nach Namen, Verantworlich, ECTS, Lehrform zu sortieren. Umkehren der Sortierreihenfolge.</t>
+  </si>
+  <si>
+    <t>Die Module werden entsprechend sortiert. Die Sortierreihenfolge der Module wird von aufsteigend zu absteigend umgeschaltet und umgekehrt.</t>
+  </si>
+  <si>
+    <t>Seite korrekt geladen, Module werden angezeigt</t>
+  </si>
+  <si>
+    <t>Der 'Load More'-Button lädt weitere Module, wenn angeklickt.</t>
+  </si>
+  <si>
+    <t>Benutzer tippt auf den 'Load More'-Button.</t>
+  </si>
+  <si>
+    <t>Zusätzliche Module werden geladen und der Inhalt der Seite wird entsprechend erweitert.</t>
+  </si>
+  <si>
+    <t>Das Tippen auf eine Kurskarte öffnet die Detailansicht des Kurses.</t>
+  </si>
+  <si>
+    <t>Benutzer tippt auf die erste Kurskarte in der Liste.</t>
+  </si>
+  <si>
+    <t>Die Detailansicht des ausgewählten Moduls wird angezeigt.</t>
+  </si>
+  <si>
+    <t>Die Suchfunktion wird durch Tippen auf das Suchsymbol aktiviert.</t>
+  </si>
+  <si>
+    <t>Benutzer tippt auf das Suchsymbol.</t>
+  </si>
+  <si>
+    <t>Das Suchfeld wird angezeigt und der Benutzer kann eine Suche durchführen.</t>
+  </si>
+  <si>
+    <t>Entsprechende Anzahl an Such-, Filter- und Menü-Buttons vorhanden</t>
+  </si>
+  <si>
+    <t>Load More Button anklickbar</t>
+  </si>
+  <si>
+    <t>widget-test</t>
+  </si>
+  <si>
+    <t>lib/pages/modules/module_search_delegate.dart</t>
+  </si>
+  <si>
+    <t>buildResults</t>
+  </si>
+  <si>
+    <t>test/pages/modules/module_search_delegate_test.dart</t>
+  </si>
+  <si>
+    <t>buildActions</t>
+  </si>
+  <si>
+    <t>buildLeading</t>
+  </si>
+  <si>
+    <t>buildSuggestions</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>test/java/edu/hm/cs/organisation_app/controller/ModuleControllerTest</t>
+  </si>
+  <si>
+    <t>main/java/edu/hm/cs/organisation_app/controller/ModuleController</t>
+  </si>
+  <si>
+    <t>main/java/edu/hm/cs/organisation_app/model/Module</t>
+  </si>
+  <si>
+    <t>test/java/edu/hm/cs/organisation_app/module/ModuleTest</t>
+  </si>
+  <si>
+    <t>allModules</t>
+  </si>
+  <si>
+    <t>Liste aller Module</t>
+  </si>
+  <si>
+    <t>API-Integrationstest</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>findModule</t>
+  </si>
+  <si>
+    <t>Modul mit ID existiert</t>
+  </si>
+  <si>
+    <t>Modul mit ID existiert nicht</t>
+  </si>
+  <si>
+    <t>Modul-ID</t>
+  </si>
+  <si>
+    <t>Modulinformationen</t>
+  </si>
+  <si>
+    <t>Komponententest</t>
+  </si>
+  <si>
+    <t>newModule</t>
+  </si>
+  <si>
+    <t>updateModule</t>
+  </si>
+  <si>
+    <t>deleteModule</t>
+  </si>
+  <si>
+    <t>Module können hinzugefügt werden</t>
+  </si>
+  <si>
+    <t>Module mit Info</t>
+  </si>
+  <si>
+    <t>Modul mit Details</t>
+  </si>
+  <si>
+    <t>mehrere Module mit Details</t>
+  </si>
+  <si>
+    <t>Status created</t>
+  </si>
+  <si>
+    <t>Modul existiert</t>
+  </si>
+  <si>
+    <t>Modul existiert nicht</t>
+  </si>
+  <si>
+    <t>Updateinformationen</t>
+  </si>
+  <si>
+    <t>Status "updated"</t>
+  </si>
+  <si>
+    <t>Status "created"</t>
+  </si>
+  <si>
+    <t>Modul-ID und Modulinformationen</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Status "deleted"</t>
+  </si>
+  <si>
+    <t>getters &amp; setters</t>
+  </si>
+  <si>
+    <t>equals</t>
+  </si>
+  <si>
+    <t>hashcode</t>
+  </si>
+  <si>
+    <t>toString</t>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>Modul ist korrekt strukturiert</t>
+  </si>
+  <si>
+    <t>Moduldaten</t>
+  </si>
+  <si>
+    <t>Unit-Test</t>
+  </si>
+  <si>
+    <t>Modul korrekt strukturiert</t>
+  </si>
+  <si>
+    <t>getter &amp; setter</t>
+  </si>
+  <si>
+    <t>Modul vorhanden</t>
+  </si>
+  <si>
+    <t>Passende Werte für Setter</t>
+  </si>
+  <si>
+    <t>Module sind equal</t>
+  </si>
+  <si>
+    <t>Module sind nicht equal</t>
+  </si>
+  <si>
+    <t>Info ob Module equal sind</t>
+  </si>
+  <si>
+    <t>Zwei verschiedene Module</t>
+  </si>
+  <si>
+    <t>Zwei gleiche Module</t>
+  </si>
+  <si>
+    <t>Info: Module sind equal</t>
+  </si>
+  <si>
+    <t>Info: Module sind nicht equal</t>
+  </si>
+  <si>
+    <t>Module haben gleichen hashcode</t>
+  </si>
+  <si>
+    <t>Module haben nicht den gleichen hashcode</t>
+  </si>
+  <si>
+    <t>Hashcode des Moduls</t>
+  </si>
+  <si>
+    <t>Moduleobjekte sind verschieden</t>
+  </si>
+  <si>
+    <t>Modulobjekte sind gleich</t>
+  </si>
+  <si>
+    <t>Module haben gleichen Inhalt</t>
+  </si>
+  <si>
+    <t>Module haben verschiedenen inhalt</t>
+  </si>
+  <si>
+    <t>Info: Module haben verschiedenen Hashcode</t>
+  </si>
+  <si>
+    <t>Info: Module haben gleichen hashcode</t>
+  </si>
+  <si>
+    <t>String der Moduldetails</t>
+  </si>
+  <si>
+    <t>Modulobjekt</t>
+  </si>
+  <si>
+    <t>Modulinfos als String</t>
   </si>
 </sst>
 </file>
@@ -249,7 +777,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +801,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -382,13 +916,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -442,11 +1002,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -454,7 +1029,7 @@
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="127">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -561,6 +1136,1638 @@
     <dxf>
       <border outline="0">
         <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
           <color indexed="64"/>
         </top>
       </border>
@@ -781,29 +2988,197 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:F6" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A4:F6" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:F25" totalsRowShown="0" headerRowDxfId="126" headerRowBorderDxfId="125" tableBorderDxfId="124" totalsRowBorderDxfId="123">
+  <autoFilter ref="A4:F25" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Komponente-Datei" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Klasse" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{F84C3C09-490B-4651-81C6-6C8B08C187FF}" name="Methode" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{42935E76-B357-4DF0-A865-8B148F93BB65}" name="Test-Datei" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Komponente-Datei" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Klasse" dataDxfId="119"/>
+    <tableColumn id="5" xr3:uid="{F84C3C09-490B-4651-81C6-6C8B08C187FF}" name="Methode" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{42935E76-B357-4DF0-A865-8B148F93BB65}" name="Test-Datei" dataDxfId="117"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C414AC75-C6CF-0D4E-B242-F16D045FB527}" name="Table33581011" displayName="Table33581011" ref="A80:E81" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="42" tableBorderDxfId="43" totalsRowBorderDxfId="41">
+  <autoFilter ref="A80:E81" xr:uid="{C414AC75-C6CF-0D4E-B242-F16D045FB527}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A16F1246-6F56-0D4C-AEB1-5A43FAE8944E}" name="Testfälle" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{A996D90A-E40C-B24B-88DE-039029A83958}" name="Test-Typ" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{62C3EA5A-879A-1A49-9555-D8BDF5DF7447}" name="Bedingung" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{F520000B-9074-EA45-8CC0-5F291D17FC18}" name="Eingaben" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{9657ABE9-7736-1045-B68E-9AD5ED73FFCE}" name="Erwartete Ausgaben" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E99C2232-1707-9B4A-AE4D-2B792B2DF4B7}" name="Table3358101112" displayName="Table3358101112" ref="A93:E94" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="33" tableBorderDxfId="34" totalsRowBorderDxfId="32">
+  <autoFilter ref="A93:E94" xr:uid="{E99C2232-1707-9B4A-AE4D-2B792B2DF4B7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2F964306-8438-8046-B583-0A589C4BBAD0}" name="Testfälle" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{319D56DD-9EEC-C647-94B8-0FAC076B7421}" name="Test-Typ" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{4790B96F-92F7-B145-B370-3A796A17B6C7}" name="Bedingung" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{4039AE6F-D6AE-274D-8E84-656F48BE1E32}" name="Eingaben" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{0926D8AE-13E4-EF43-A604-8BAB9069F356}" name="Erwartete Ausgaben" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7C935540-D6CF-574D-A710-110B790CD767}" name="Table335810111213" displayName="Table335810111213" ref="A106:E108" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+  <autoFilter ref="A106:E108" xr:uid="{7C935540-D6CF-574D-A710-110B790CD767}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{18ECAC30-B96A-9E4C-B7A4-A3D578B336A6}" name="Testfälle" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{E72CFD1F-6D98-9945-870E-265C85AB9D03}" name="Test-Typ" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{CD8D5D91-1E11-BC4D-A6B2-837F43C33DC0}" name="Bedingung" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{4D704CC0-1628-A34E-B495-7F8980306E02}" name="Eingaben" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{3DED4870-A8FD-6942-9983-CE737BF4C2C0}" name="Erwartete Ausgaben" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FBB89192-B435-5C4C-AD58-9F78D3769AD0}" name="Table33581011121314" displayName="Table33581011121314" ref="A120:E122" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="A120:E122" xr:uid="{FBB89192-B435-5C4C-AD58-9F78D3769AD0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4BEFF153-1196-DD40-8D1C-CC19ADA9D9D3}" name="Testfälle" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{161BE1D6-5FA1-6944-BFB5-ADCB4E6B5CBD}" name="Test-Typ" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{0403D2EF-29E7-C246-8710-D42F22526562}" name="Bedingung" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{93F4028F-5A21-4C4A-818F-D0E168381CF1}" name="Eingaben" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FAA0B7E2-6CE5-AE40-A812-52D75DF3E447}" name="Erwartete Ausgaben" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{EE548880-766F-E346-BDEF-BB66FE343D1D}" name="Table3358101112131415" displayName="Table3358101112131415" ref="A134:E135" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A134:E135" xr:uid="{EE548880-766F-E346-BDEF-BB66FE343D1D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D0BC846E-29A3-C443-95AD-F2324F244296}" name="Testfälle" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{46FD94CF-DD03-0E47-8BCB-6CCDEB0FE002}" name="Test-Typ" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3C3E30E5-9B02-5447-BBDE-DE44D53523DC}" name="Bedingung" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{197D8924-B2C8-DB41-ABCE-20AAB93896EB}" name="Eingaben" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{2A3D5F1E-09AB-AA4D-9B44-4A464EEBC7D6}" name="Erwartete Ausgaben" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E13" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E13" totalsRowShown="0" headerRowDxfId="116" headerRowBorderDxfId="115" tableBorderDxfId="114" totalsRowBorderDxfId="113">
   <autoFilter ref="A12:E13" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="108"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C3A0CB92-FFA9-3346-9BDE-915D7A7FBC26}" name="Table33" displayName="Table33" ref="A27:E28" totalsRowShown="0" headerRowDxfId="107" headerRowBorderDxfId="106" tableBorderDxfId="105" totalsRowBorderDxfId="104">
+  <autoFilter ref="A27:E28" xr:uid="{C3A0CB92-FFA9-3346-9BDE-915D7A7FBC26}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8BF11FEE-9F0D-3446-A19B-A615C0D01055}" name="Testfälle" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{E5F32F69-D70B-6248-9BE8-5E64D6953DD5}" name="Test-Typ" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{002CD8E7-0442-8A43-95E1-388A2B22E152}" name="Bedingung" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{A84E3071-52B8-9142-B9F7-E9B4D851253D}" name="Eingaben" dataDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{929C2056-5FD4-FA46-9402-8771C227A6DE}" name="Erwartete Ausgaben" dataDxfId="99"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AF7089DF-CF9B-0D49-A418-E2FE0BE0D3A1}" name="Table335" displayName="Table335" ref="A43:E44" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" tableBorderDxfId="96" totalsRowBorderDxfId="95">
+  <autoFilter ref="A43:E44" xr:uid="{AF7089DF-CF9B-0D49-A418-E2FE0BE0D3A1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CD6E8423-1293-AB45-BBBC-C3E04190B342}" name="Testfälle" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{AE5A0E5D-28D1-A04E-877E-1DCA64FC8FED}" name="Test-Typ" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{34F28975-F5FD-A847-B12B-25C4A5A03B18}" name="Bedingung" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{A7758071-F3F9-A74A-9C94-18F8B54D4CF5}" name="Eingaben" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{0803ADEC-4E82-EE47-AA42-F0D4756A8C29}" name="Erwartete Ausgaben" dataDxfId="90"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{42223797-21D5-7D48-9D70-DEF9E9B1B3F9}" name="Table36" displayName="Table36" ref="A12:E13" totalsRowShown="0" headerRowDxfId="89" headerRowBorderDxfId="87" tableBorderDxfId="88" totalsRowBorderDxfId="86">
+  <autoFilter ref="A12:E13" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CD0DAE25-A8AF-1048-B333-031924732E56}" name="E" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{FF2E9322-FAFF-9B49-964F-61D63C2C773C}" name="Test-Typ" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{514C0368-C5DB-C946-B9EF-15E93E1281EA}" name="Bedingung" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{F36EBDF0-8011-014C-B72B-918E19A81ABB}" name="Eingaben" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{0B5AFE64-8A0E-D042-A6E0-995B5AF949E4}" name="Erwartete Ausgaben" dataDxfId="81"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DFC2B90B-CA9A-1247-9A52-9F9F4AC7DB1D}" name="Table337" displayName="Table337" ref="A26:E27" totalsRowShown="0" headerRowDxfId="80" headerRowBorderDxfId="78" tableBorderDxfId="79" totalsRowBorderDxfId="77">
+  <autoFilter ref="A26:E27" xr:uid="{C3A0CB92-FFA9-3346-9BDE-915D7A7FBC26}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4639CAFD-D126-9341-96F5-85C86BD5E7AA}" name="Testfälle" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{31F9A598-7403-0E43-A248-7E31BBB2AA9A}" name="Test-Typ" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{1C4DD761-CEAD-AB43-AA90-E026C940CB10}" name="Bedingung" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{F9C7FFD1-8C98-F945-B8D0-9AC2E397436E}" name="Eingaben" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{82002A54-C9BE-3D45-B2CC-14CA8373127C}" name="Erwartete Ausgaben" dataDxfId="73"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{48CC3D64-1132-E448-9AB8-E3D5B11EC983}" name="Table3358" displayName="Table3358" ref="A40:E41" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="70" tableBorderDxfId="71" totalsRowBorderDxfId="69">
+  <autoFilter ref="A40:E41" xr:uid="{AF7089DF-CF9B-0D49-A418-E2FE0BE0D3A1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D09FD418-BAC4-E84E-861D-482214D19324}" name="Testfälle" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{E9F74087-07E4-D143-B375-A83F47246263}" name="Test-Typ" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{96D82B82-8080-6341-A5A9-168281BC7F66}" name="Bedingung" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{8D205163-A70C-AD45-9549-CA0678BD9A90}" name="Eingaben" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{09F7AFBD-ED6E-D84C-A784-6E102F1D86C7}" name="Erwartete Ausgaben" dataDxfId="64"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A353ECA7-9190-4D4B-AA3A-528769854305}" name="Table33589" displayName="Table33589" ref="A54:E55" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="60" tableBorderDxfId="61" totalsRowBorderDxfId="59">
+  <autoFilter ref="A54:E55" xr:uid="{A353ECA7-9190-4D4B-AA3A-528769854305}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9C6E7624-E66B-3B46-903D-6ECB0B82B97D}" name="Testfälle" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{C05FF0AC-90B3-FA44-A5F7-9D7B5D34BFDC}" name="Test-Typ" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{90AFDEF9-D9F6-B74A-B4E8-993FC21ADD4F}" name="Bedingung" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{9FE6004B-FA25-6141-891D-3E73D853959F}" name="Eingaben" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{4E47CCDA-B661-7B42-8D42-3E3E30B866CA}" name="Erwartete Ausgaben" dataDxfId="54"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2E9F9355-BEED-1940-8FF6-730264A3503E}" name="Table335810" displayName="Table335810" ref="A67:E68" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="51" tableBorderDxfId="52" totalsRowBorderDxfId="50">
+  <autoFilter ref="A67:E68" xr:uid="{2E9F9355-BEED-1940-8FF6-730264A3503E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{92A65681-B09F-6C44-AC72-E240BE036641}" name="Testfälle" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{2CCE4685-25C6-7443-B244-71DC5801E899}" name="Test-Typ" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{583757A0-56C1-4B42-A54E-007621ABD33F}" name="Bedingung" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{681C83ED-068D-F243-9001-92AE0D174725}" name="Eingaben" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{E04B894D-7C0B-D24B-BFF0-8244199B448C}" name="Erwartete Ausgaben" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1072,97 +3447,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA8CA56-581F-4991-9983-10E0961810A1}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.77734375" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="D14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>59</v>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1171,24 +3927,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5777E552-38DB-4FF6-8E00-150ECCF800EA}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -1198,30 +3954,36 @@
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -1230,15 +3992,15 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1246,102 +4008,467 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="24">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+        <v>189</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="32">
+        <v>3</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="24">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
+        <v>3</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="24">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="24">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="24">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" style="14" customWidth="1"/>
-    <col min="3" max="4" width="35.109375" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" customWidth="1"/>
-    <col min="6" max="6" width="1.5546875" customWidth="1"/>
-    <col min="7" max="11" width="26.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" customWidth="1"/>
+    <col min="6" max="6" width="1.5" customWidth="1"/>
+    <col min="7" max="11" width="26.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="5"/>
@@ -1354,282 +4481,356 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="12">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+    <row r="7" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
       <c r="B9" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
       <c r="B10" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>140</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="12">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
       <c r="B12" s="12">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="2"/>
+    <row r="13" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="12">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="12">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="12">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1639,85 +4840,351 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="13" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="33">
+        <v>2</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B2:B20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1725,13 +5192,1267 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC10DF8B-338F-4ED2-9F64-130340EF975F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA490578-FB39-6641-940A-09FC0F44A876}">
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="24">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="24">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="24">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="24">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="24">
+        <v>1</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="24">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="24">
+        <v>1</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="37">
+        <v>2</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="24">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="37">
+        <v>2</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E122" s="36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>28</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="24">
+        <v>1</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="10">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+  </tableParts>
 </worksheet>
 </file>